--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1150,678 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>186890.28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>24895753.652</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24895753.652</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3285306.678</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>628704.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-628704.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2656602.278</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>17976740.579</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17976740.579</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>38785679.541</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>38785679.541</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15828675.829</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15828675.829</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13499313.638</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>678372.665</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-678372.665</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12820940.973</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1966294.501</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1966294.501</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15756766.585</v>
+      </c>
+      <c r="D33" t="n">
+        <v>169483.949</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19167.272</v>
+      </c>
+      <c r="F33" t="n">
+        <v>150316.677</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>15907083.262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3492831.93</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3492831.93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>21240381.803</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>21240381.803</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>620749.47</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>620749.47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>12489589.32</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-372167.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>12117421.82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>155525569.983</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2135547.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-2135547.8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>372167.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>153762189.683</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7647170.029</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-106868.422</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7540301.607</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>25062082.374</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>900673.37</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-900673.37</v>
+      </c>
+      <c r="G41" t="n">
+        <v>106868.422</v>
+      </c>
+      <c r="H41" t="n">
+        <v>24268277.426</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1416635.864</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-191129.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1225506.264</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>606896.577</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>191129.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>798026.177</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8330589.44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-191574.9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8139014.54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10965243.526</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191574.9</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11156818.426</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>7591598.24</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7591598.24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>186890.28</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>186890.28</v>
       </c>
     </row>
@@ -1201,13 +1873,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3285306.678</v>
+        <v>2656602.278</v>
       </c>
       <c r="C2" t="n">
         <v>24895753.652</v>
       </c>
       <c r="D2" t="n">
-        <v>28181060.33</v>
+        <v>27552355.93</v>
       </c>
     </row>
     <row r="3">
@@ -1233,13 +1905,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13499313.638</v>
+        <v>12820940.973</v>
       </c>
       <c r="C4" t="n">
         <v>15828675.829</v>
       </c>
       <c r="D4" t="n">
-        <v>29327989.467</v>
+        <v>28649616.802</v>
       </c>
     </row>
     <row r="5">
@@ -1249,13 +1921,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15756766.585</v>
+        <v>15907083.262</v>
       </c>
       <c r="C5" t="n">
         <v>1966294.501</v>
       </c>
       <c r="D5" t="n">
-        <v>17723061.086</v>
+        <v>17873377.763</v>
       </c>
     </row>
     <row r="6">
@@ -1297,13 +1969,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155525569.983</v>
+        <v>153762189.683</v>
       </c>
       <c r="C8" t="n">
-        <v>12489589.32</v>
+        <v>12117421.82</v>
       </c>
       <c r="D8" t="n">
-        <v>168015159.303</v>
+        <v>165879611.503</v>
       </c>
     </row>
     <row r="9">
@@ -1313,13 +1985,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25062082.374</v>
+        <v>24268277.426</v>
       </c>
       <c r="C9" t="n">
-        <v>7647170.029</v>
+        <v>7540301.607</v>
       </c>
       <c r="D9" t="n">
-        <v>32709252.403</v>
+        <v>31808579.033</v>
       </c>
     </row>
     <row r="10">
@@ -1345,10 +2017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>606896.577</v>
+        <v>798026.177</v>
       </c>
       <c r="C11" t="n">
-        <v>1416635.864</v>
+        <v>1225506.264</v>
       </c>
       <c r="D11" t="n">
         <v>2023532.441</v>
@@ -1361,10 +2033,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10965243.526</v>
+        <v>11156818.426</v>
       </c>
       <c r="C12" t="n">
-        <v>8330589.44</v>
+        <v>8139014.54</v>
       </c>
       <c r="D12" t="n">
         <v>19295832.966</v>
@@ -1434,13 +2106,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288209377.629</v>
+        <v>284878136.493</v>
       </c>
       <c r="C2" t="n">
-        <v>102256628.854</v>
+        <v>101394888.432</v>
       </c>
       <c r="D2" t="n">
-        <v>390466006.483</v>
+        <v>386273024.925</v>
       </c>
     </row>
     <row r="5">
@@ -1492,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>628704.4</v>
       </c>
       <c r="E7" t="n">
-        <v>3285306.678</v>
+        <v>2656602.278</v>
       </c>
     </row>
     <row r="8">
@@ -1576,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1841567.808</v>
+        <v>2519940.473</v>
       </c>
       <c r="E11" t="n">
-        <v>13499313.638</v>
+        <v>12820940.973</v>
       </c>
     </row>
     <row r="12">
@@ -1615,13 +2287,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169483.949</v>
       </c>
       <c r="D13" t="n">
-        <v>24096.717</v>
+        <v>43263.989</v>
       </c>
       <c r="E13" t="n">
-        <v>15756766.585</v>
+        <v>15907083.262</v>
       </c>
     </row>
     <row r="14">
@@ -1744,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>848985.9</v>
+        <v>2984533.7</v>
       </c>
       <c r="E19" t="n">
-        <v>155525569.983</v>
+        <v>153762189.683</v>
       </c>
     </row>
     <row r="20">
@@ -1768,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12489589.32</v>
+        <v>12117421.82</v>
       </c>
     </row>
     <row r="21">
@@ -1786,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>600680.3</v>
+        <v>1501353.67</v>
       </c>
       <c r="E21" t="n">
-        <v>25062082.374</v>
+        <v>24268277.426</v>
       </c>
     </row>
     <row r="22">
@@ -1810,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7647170.029</v>
+        <v>7540301.607</v>
       </c>
     </row>
     <row r="23">
@@ -1873,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>606896.577</v>
+        <v>798026.177</v>
       </c>
     </row>
     <row r="26">
@@ -1894,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1416635.864</v>
+        <v>1225506.264</v>
       </c>
     </row>
     <row r="27">
@@ -1915,7 +2587,7 @@
         <v>222374.197</v>
       </c>
       <c r="E27" t="n">
-        <v>10965243.526</v>
+        <v>11156818.426</v>
       </c>
     </row>
     <row r="28">
@@ -1936,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>8330589.44</v>
+        <v>8139014.54</v>
       </c>
     </row>
     <row r="29">

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,6 +1823,678 @@
       </c>
       <c r="H49" t="n">
         <v>186890.28</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>24895753.652</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-942122.0600000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>23953631.592</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2656602.278</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>610906.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-610906.3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>942122.0600000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2987818.038</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>17976740.579</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-414146.13</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17562594.449</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>38785679.541</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>414146.13</v>
+      </c>
+      <c r="H53" t="n">
+        <v>39199825.671</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15828675.829</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-485175.71</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15343500.119</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>12820940.973</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>368252.82</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-368252.82</v>
+      </c>
+      <c r="G55" t="n">
+        <v>485175.71</v>
+      </c>
+      <c r="H55" t="n">
+        <v>12937863.863</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1966294.501</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1966294.501</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>15907083.262</v>
+      </c>
+      <c r="D57" t="n">
+        <v>72286.962</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2000.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>70286.36199999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15977369.624</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3492831.93</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-20560.25</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3472271.68</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>21240381.803</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>110629.57</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-110629.57</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20560.25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>21150312.483</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>620749.47</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>620749.47</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>12117421.82</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-82164.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>12035257.32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>153762189.683</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2565810.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-2565810.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>82164.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>151278543.683</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>7540301.607</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-166001.84</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7374299.767</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>24268277.426</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1088419.08</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-1088419.08</v>
+      </c>
+      <c r="G65" t="n">
+        <v>166001.84</v>
+      </c>
+      <c r="H65" t="n">
+        <v>23345860.186</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1225506.264</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1225506.264</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>798026.177</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>798026.177</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>8139014.54</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1100405.34</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7038609.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>11156818.426</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>30489.762</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-30489.762</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1100405.34</v>
+      </c>
+      <c r="H71" t="n">
+        <v>12226734.004</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>7591598.24</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-46307.1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7545291.14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>186890.28</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>46307.1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>233197.38</v>
       </c>
     </row>
   </sheetData>
@@ -1873,13 +2545,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2656602.278</v>
+        <v>2987818.038</v>
       </c>
       <c r="C2" t="n">
-        <v>24895753.652</v>
+        <v>23953631.592</v>
       </c>
       <c r="D2" t="n">
-        <v>27552355.93</v>
+        <v>26941449.63</v>
       </c>
     </row>
     <row r="3">
@@ -1889,10 +2561,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38785679.541</v>
+        <v>39199825.671</v>
       </c>
       <c r="C3" t="n">
-        <v>17976740.579</v>
+        <v>17562594.449</v>
       </c>
       <c r="D3" t="n">
         <v>56762420.12</v>
@@ -1905,13 +2577,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12820940.973</v>
+        <v>12937863.863</v>
       </c>
       <c r="C4" t="n">
-        <v>15828675.829</v>
+        <v>15343500.119</v>
       </c>
       <c r="D4" t="n">
-        <v>28649616.802</v>
+        <v>28281363.982</v>
       </c>
     </row>
     <row r="5">
@@ -1921,13 +2593,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15907083.262</v>
+        <v>15977369.624</v>
       </c>
       <c r="C5" t="n">
         <v>1966294.501</v>
       </c>
       <c r="D5" t="n">
-        <v>17873377.763</v>
+        <v>17943664.125</v>
       </c>
     </row>
     <row r="6">
@@ -1937,13 +2609,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21240381.803</v>
+        <v>21150312.483</v>
       </c>
       <c r="C6" t="n">
-        <v>3492831.93</v>
+        <v>3472271.68</v>
       </c>
       <c r="D6" t="n">
-        <v>24733213.733</v>
+        <v>24622584.163</v>
       </c>
     </row>
     <row r="7">
@@ -1969,13 +2641,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153762189.683</v>
+        <v>151278543.683</v>
       </c>
       <c r="C8" t="n">
-        <v>12117421.82</v>
+        <v>12035257.32</v>
       </c>
       <c r="D8" t="n">
-        <v>165879611.503</v>
+        <v>163313801.003</v>
       </c>
     </row>
     <row r="9">
@@ -1985,13 +2657,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24268277.426</v>
+        <v>23345860.186</v>
       </c>
       <c r="C9" t="n">
-        <v>7540301.607</v>
+        <v>7374299.767</v>
       </c>
       <c r="D9" t="n">
-        <v>31808579.033</v>
+        <v>30720159.953</v>
       </c>
     </row>
     <row r="10">
@@ -2033,13 +2705,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11156818.426</v>
+        <v>12226734.004</v>
       </c>
       <c r="C12" t="n">
-        <v>8139014.54</v>
+        <v>7038609.2</v>
       </c>
       <c r="D12" t="n">
-        <v>19295832.966</v>
+        <v>19265343.204</v>
       </c>
     </row>
     <row r="13">
@@ -2049,10 +2721,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186890.28</v>
+        <v>233197.38</v>
       </c>
       <c r="C13" t="n">
-        <v>7591598.24</v>
+        <v>7545291.14</v>
       </c>
       <c r="D13" t="n">
         <v>7778488.52</v>
@@ -2106,13 +2778,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284878136.493</v>
+        <v>283430797.753</v>
       </c>
       <c r="C2" t="n">
-        <v>101394888.432</v>
+        <v>98138005.502</v>
       </c>
       <c r="D2" t="n">
-        <v>386273024.925</v>
+        <v>381568803.255</v>
       </c>
     </row>
     <row r="5">
@@ -2164,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>628704.4</v>
+        <v>1239610.7</v>
       </c>
       <c r="E7" t="n">
-        <v>2656602.278</v>
+        <v>2987818.038</v>
       </c>
     </row>
     <row r="8">
@@ -2188,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>24895753.652</v>
+        <v>23953631.592</v>
       </c>
     </row>
     <row r="9">
@@ -2209,7 +2881,7 @@
         <v>814465.745</v>
       </c>
       <c r="E9" t="n">
-        <v>38785679.541</v>
+        <v>39199825.671</v>
       </c>
     </row>
     <row r="10">
@@ -2230,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17976740.579</v>
+        <v>17562594.449</v>
       </c>
     </row>
     <row r="11">
@@ -2248,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2519940.473</v>
+        <v>2888193.293</v>
       </c>
       <c r="E11" t="n">
-        <v>12820940.973</v>
+        <v>12937863.863</v>
       </c>
     </row>
     <row r="12">
@@ -2272,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>15828675.829</v>
+        <v>15343500.119</v>
       </c>
     </row>
     <row r="13">
@@ -2287,13 +2959,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>169483.949</v>
+        <v>241770.911</v>
       </c>
       <c r="D13" t="n">
-        <v>43263.989</v>
+        <v>45264.589</v>
       </c>
       <c r="E13" t="n">
-        <v>15907083.262</v>
+        <v>15977369.624</v>
       </c>
     </row>
     <row r="14">
@@ -2332,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>110629.57</v>
       </c>
       <c r="E15" t="n">
-        <v>21240381.803</v>
+        <v>21150312.483</v>
       </c>
     </row>
     <row r="16">
@@ -2356,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3492831.93</v>
+        <v>3472271.68</v>
       </c>
     </row>
     <row r="17">
@@ -2416,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2984533.7</v>
+        <v>5550344.199999999</v>
       </c>
       <c r="E19" t="n">
-        <v>153762189.683</v>
+        <v>151278543.683</v>
       </c>
     </row>
     <row r="20">
@@ -2440,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12117421.82</v>
+        <v>12035257.32</v>
       </c>
     </row>
     <row r="21">
@@ -2458,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1501353.67</v>
+        <v>2589772.75</v>
       </c>
       <c r="E21" t="n">
-        <v>24268277.426</v>
+        <v>23345860.186</v>
       </c>
     </row>
     <row r="22">
@@ -2482,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7540301.607</v>
+        <v>7374299.767</v>
       </c>
     </row>
     <row r="23">
@@ -2584,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>222374.197</v>
+        <v>252863.959</v>
       </c>
       <c r="E27" t="n">
-        <v>11156818.426</v>
+        <v>12226734.004</v>
       </c>
     </row>
     <row r="28">
@@ -2608,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>8139014.54</v>
+        <v>7038609.2</v>
       </c>
     </row>
     <row r="29">
@@ -2629,7 +3301,7 @@
         <v>4982.02</v>
       </c>
       <c r="E29" t="n">
-        <v>186890.28</v>
+        <v>233197.38</v>
       </c>
     </row>
     <row r="30">
@@ -2650,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7591598.24</v>
+        <v>7545291.14</v>
       </c>
     </row>
   </sheetData>

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,6 +2494,678 @@
         <v>46307.1</v>
       </c>
       <c r="H73" t="n">
+        <v>233197.38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>23953631.592</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>23953631.592</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2987818.038</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>431920.43</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-431920.43</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2555897.608</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>17562594.449</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1440234.803</v>
+      </c>
+      <c r="H76" t="n">
+        <v>16122359.646</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>39199825.671</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1440234.803</v>
+      </c>
+      <c r="H77" t="n">
+        <v>40640060.474</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15343500.119</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2368902.04</v>
+      </c>
+      <c r="H78" t="n">
+        <v>12974598.079</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>12937863.863</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2368902.04</v>
+      </c>
+      <c r="H79" t="n">
+        <v>15306765.903</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1966294.501</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-413592.568</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1552701.933</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>15977369.624</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>129734.436</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-129734.436</v>
+      </c>
+      <c r="G81" t="n">
+        <v>413592.568</v>
+      </c>
+      <c r="H81" t="n">
+        <v>16261227.756</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3472271.68</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3472271.68</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>21150312.483</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>21150312.483</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>620749.47</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-346959.6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>346959.6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3642206.244</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>12035257.32</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>12035257.32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>151278543.683</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1126603.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-1126603.4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>150151940.283</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>7374299.767</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7374299.767</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>23345860.186</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>50476.75</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-50476.75</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>23295383.436</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1225506.264</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1225506.264</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>798026.177</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>798026.177</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>7038609.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-538131.579</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6500477.621</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>12226734.004</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>597061.8639999999</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-597061.8639999999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>538131.579</v>
+      </c>
+      <c r="H95" t="n">
+        <v>12167803.719</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>7545291.14</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7545291.14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>233197.38</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
         <v>233197.38</v>
       </c>
     </row>
@@ -2545,13 +3217,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2987818.038</v>
+        <v>2555897.608</v>
       </c>
       <c r="C2" t="n">
         <v>23953631.592</v>
       </c>
       <c r="D2" t="n">
-        <v>26941449.63</v>
+        <v>26509529.2</v>
       </c>
     </row>
     <row r="3">
@@ -2561,10 +3233,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39199825.671</v>
+        <v>40640060.474</v>
       </c>
       <c r="C3" t="n">
-        <v>17562594.449</v>
+        <v>16122359.646</v>
       </c>
       <c r="D3" t="n">
         <v>56762420.12</v>
@@ -2577,10 +3249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12937863.863</v>
+        <v>15306765.903</v>
       </c>
       <c r="C4" t="n">
-        <v>15343500.119</v>
+        <v>12974598.079</v>
       </c>
       <c r="D4" t="n">
         <v>28281363.982</v>
@@ -2593,13 +3265,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15977369.624</v>
+        <v>16261227.756</v>
       </c>
       <c r="C5" t="n">
-        <v>1966294.501</v>
+        <v>1552701.933</v>
       </c>
       <c r="D5" t="n">
-        <v>17943664.125</v>
+        <v>17813929.689</v>
       </c>
     </row>
     <row r="6">
@@ -2625,10 +3297,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3295246.644</v>
+        <v>3642206.244</v>
       </c>
       <c r="C7" t="n">
-        <v>620749.47</v>
+        <v>273789.87</v>
       </c>
       <c r="D7" t="n">
         <v>3915996.114</v>
@@ -2641,13 +3313,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>151278543.683</v>
+        <v>150151940.283</v>
       </c>
       <c r="C8" t="n">
         <v>12035257.32</v>
       </c>
       <c r="D8" t="n">
-        <v>163313801.003</v>
+        <v>162187197.603</v>
       </c>
     </row>
     <row r="9">
@@ -2657,13 +3329,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23345860.186</v>
+        <v>23295383.436</v>
       </c>
       <c r="C9" t="n">
         <v>7374299.767</v>
       </c>
       <c r="D9" t="n">
-        <v>30720159.953</v>
+        <v>30669683.203</v>
       </c>
     </row>
     <row r="10">
@@ -2705,13 +3377,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12226734.004</v>
+        <v>12167803.719</v>
       </c>
       <c r="C12" t="n">
-        <v>7038609.2</v>
+        <v>6500477.621</v>
       </c>
       <c r="D12" t="n">
-        <v>19265343.204</v>
+        <v>18668281.34</v>
       </c>
     </row>
     <row r="13">
@@ -2778,13 +3450,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283430797.753</v>
+        <v>286202821.463</v>
       </c>
       <c r="C2" t="n">
-        <v>98138005.502</v>
+        <v>93030184.912</v>
       </c>
       <c r="D2" t="n">
-        <v>381568803.255</v>
+        <v>379233006.375</v>
       </c>
     </row>
     <row r="5">
@@ -2836,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1239610.7</v>
+        <v>1671531.13</v>
       </c>
       <c r="E7" t="n">
-        <v>2987818.038</v>
+        <v>2555897.608</v>
       </c>
     </row>
     <row r="8">
@@ -2881,7 +3553,7 @@
         <v>814465.745</v>
       </c>
       <c r="E9" t="n">
-        <v>39199825.671</v>
+        <v>40640060.474</v>
       </c>
     </row>
     <row r="10">
@@ -2902,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17562594.449</v>
+        <v>16122359.646</v>
       </c>
     </row>
     <row r="11">
@@ -2923,7 +3595,7 @@
         <v>2888193.293</v>
       </c>
       <c r="E11" t="n">
-        <v>12937863.863</v>
+        <v>15306765.903</v>
       </c>
     </row>
     <row r="12">
@@ -2944,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>15343500.119</v>
+        <v>12974598.079</v>
       </c>
     </row>
     <row r="13">
@@ -2962,10 +3634,10 @@
         <v>241770.911</v>
       </c>
       <c r="D13" t="n">
-        <v>45264.589</v>
+        <v>174999.025</v>
       </c>
       <c r="E13" t="n">
-        <v>15977369.624</v>
+        <v>16261227.756</v>
       </c>
     </row>
     <row r="14">
@@ -2986,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1966294.501</v>
+        <v>1552701.933</v>
       </c>
     </row>
     <row r="15">
@@ -3049,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3295246.644</v>
+        <v>3642206.244</v>
       </c>
     </row>
     <row r="18">
@@ -3070,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>620749.47</v>
+        <v>273789.87</v>
       </c>
     </row>
     <row r="19">
@@ -3088,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5550344.199999999</v>
+        <v>6676947.6</v>
       </c>
       <c r="E19" t="n">
-        <v>151278543.683</v>
+        <v>150151940.283</v>
       </c>
     </row>
     <row r="20">
@@ -3130,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2589772.75</v>
+        <v>2640249.5</v>
       </c>
       <c r="E21" t="n">
-        <v>23345860.186</v>
+        <v>23295383.436</v>
       </c>
     </row>
     <row r="22">
@@ -3256,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>252863.959</v>
+        <v>849925.8229999999</v>
       </c>
       <c r="E27" t="n">
-        <v>12226734.004</v>
+        <v>12167803.719</v>
       </c>
     </row>
     <row r="28">
@@ -3280,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7038609.2</v>
+        <v>6500477.621</v>
       </c>
     </row>
     <row r="29">

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3166,6 +3166,678 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
+        <v>233197.38</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>23953631.592</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>23953631.592</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2555897.608</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2555897.608</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>16122359.646</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>16122359.646</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>40640060.474</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>40640060.474</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>12974598.079</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>12974598.079</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>15306765.903</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7944.85</v>
+      </c>
+      <c r="E103" t="n">
+        <v>353108.525</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-345163.675</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14961602.228</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1552701.933</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1552701.933</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>16261227.756</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11667.394</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-11667.394</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>16249560.362</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3472271.68</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3472271.68</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>21150312.483</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>21150312.483</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3642206.244</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3642206.244</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>12035257.32</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>12035257.32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>150151940.283</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2441186.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-2441186.7</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>147710753.583</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>7374299.767</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7374299.767</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>23295383.436</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>23295383.436</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1225506.264</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1225506.264</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>798026.177</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>798026.177</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>6500477.621</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-130217.8</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6370259.821</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>12167803.719</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>130217.8</v>
+      </c>
+      <c r="H119" t="n">
+        <v>12298021.519</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>7545291.14</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7545291.14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>233197.38</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
         <v>233197.38</v>
       </c>
     </row>
@@ -3249,13 +3921,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15306765.903</v>
+        <v>14961602.228</v>
       </c>
       <c r="C4" t="n">
         <v>12974598.079</v>
       </c>
       <c r="D4" t="n">
-        <v>28281363.982</v>
+        <v>27936200.307</v>
       </c>
     </row>
     <row r="5">
@@ -3265,13 +3937,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16261227.756</v>
+        <v>16249560.362</v>
       </c>
       <c r="C5" t="n">
         <v>1552701.933</v>
       </c>
       <c r="D5" t="n">
-        <v>17813929.689</v>
+        <v>17802262.295</v>
       </c>
     </row>
     <row r="6">
@@ -3313,13 +3985,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150151940.283</v>
+        <v>147710753.583</v>
       </c>
       <c r="C8" t="n">
         <v>12035257.32</v>
       </c>
       <c r="D8" t="n">
-        <v>162187197.603</v>
+        <v>159746010.903</v>
       </c>
     </row>
     <row r="9">
@@ -3377,10 +4049,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12167803.719</v>
+        <v>12298021.519</v>
       </c>
       <c r="C12" t="n">
-        <v>6500477.621</v>
+        <v>6370259.821</v>
       </c>
       <c r="D12" t="n">
         <v>18668281.34</v>
@@ -3450,13 +4122,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286202821.463</v>
+        <v>283535021.494</v>
       </c>
       <c r="C2" t="n">
-        <v>93030184.912</v>
+        <v>92899967.112</v>
       </c>
       <c r="D2" t="n">
-        <v>379233006.375</v>
+        <v>376434988.606</v>
       </c>
     </row>
     <row r="5">
@@ -3589,13 +4261,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7944.85</v>
       </c>
       <c r="D11" t="n">
-        <v>2888193.293</v>
+        <v>3241301.818</v>
       </c>
       <c r="E11" t="n">
-        <v>15306765.903</v>
+        <v>14961602.228</v>
       </c>
     </row>
     <row r="12">
@@ -3634,10 +4306,10 @@
         <v>241770.911</v>
       </c>
       <c r="D13" t="n">
-        <v>174999.025</v>
+        <v>186666.419</v>
       </c>
       <c r="E13" t="n">
-        <v>16261227.756</v>
+        <v>16249560.362</v>
       </c>
     </row>
     <row r="14">
@@ -3760,10 +4432,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6676947.6</v>
+        <v>9118134.300000001</v>
       </c>
       <c r="E19" t="n">
-        <v>150151940.283</v>
+        <v>147710753.583</v>
       </c>
     </row>
     <row r="20">
@@ -3928,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>849925.8229999999</v>
+        <v>849925.823</v>
       </c>
       <c r="E27" t="n">
-        <v>12167803.719</v>
+        <v>12298021.519</v>
       </c>
     </row>
     <row r="28">
@@ -3952,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6500477.621</v>
+        <v>6370259.821</v>
       </c>
     </row>
     <row r="29">

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3839,6 +3839,678 @@
       </c>
       <c r="H121" t="n">
         <v>233197.38</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>23953631.592</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>23953631.592</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2555897.608</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>458859.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-458859.4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2097038.208</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>16122359.646</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>16122359.646</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>40640060.474</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1052287.68</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-1052287.68</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>39587772.794</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>12974598.079</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-739341.701</v>
+      </c>
+      <c r="H126" t="n">
+        <v>12235256.378</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>14961602.228</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>673725.54</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-673725.54</v>
+      </c>
+      <c r="G127" t="n">
+        <v>739341.701</v>
+      </c>
+      <c r="H127" t="n">
+        <v>15027218.389</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1552701.933</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-5006.7</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1547695.233</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>16249560.362</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5006.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>16254567.062</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>3472271.68</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3472271.68</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>21150312.483</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>21150312.483</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>3642206.244</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3642206.244</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>12035257.32</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-10008.78</v>
+      </c>
+      <c r="H134" t="n">
+        <v>12025248.54</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>147710753.583</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1947445.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-1947445.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>10008.78</v>
+      </c>
+      <c r="H135" t="n">
+        <v>145773316.663</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>7374299.767</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>19054.65</v>
+      </c>
+      <c r="H136" t="n">
+        <v>7393354.417</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>23295383.436</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>324212.08</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-324212.08</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-19054.65</v>
+      </c>
+      <c r="H137" t="n">
+        <v>22952116.706</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1225506.264</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1225506.264</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>798026.177</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>798026.177</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>6370259.821</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4827.529</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6365432.292</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>12298021.519</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4827.529</v>
+      </c>
+      <c r="H143" t="n">
+        <v>12302849.048</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>7545291.14</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4967.6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>7540323.54</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>233197.38</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4967.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-4967.8</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4967.6</v>
+      </c>
+      <c r="H145" t="n">
+        <v>233197.18</v>
       </c>
     </row>
   </sheetData>
@@ -3889,13 +4561,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2555897.608</v>
+        <v>2097038.208</v>
       </c>
       <c r="C2" t="n">
         <v>23953631.592</v>
       </c>
       <c r="D2" t="n">
-        <v>26509529.2</v>
+        <v>26050669.8</v>
       </c>
     </row>
     <row r="3">
@@ -3905,13 +4577,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40640060.474</v>
+        <v>39587772.794</v>
       </c>
       <c r="C3" t="n">
         <v>16122359.646</v>
       </c>
       <c r="D3" t="n">
-        <v>56762420.12</v>
+        <v>55710132.44</v>
       </c>
     </row>
     <row r="4">
@@ -3921,13 +4593,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14961602.228</v>
+        <v>15027218.389</v>
       </c>
       <c r="C4" t="n">
-        <v>12974598.079</v>
+        <v>12235256.378</v>
       </c>
       <c r="D4" t="n">
-        <v>27936200.307</v>
+        <v>27262474.767</v>
       </c>
     </row>
     <row r="5">
@@ -3937,10 +4609,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16249560.362</v>
+        <v>16254567.062</v>
       </c>
       <c r="C5" t="n">
-        <v>1552701.933</v>
+        <v>1547695.233</v>
       </c>
       <c r="D5" t="n">
         <v>17802262.295</v>
@@ -3985,13 +4657,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147710753.583</v>
+        <v>145773316.663</v>
       </c>
       <c r="C8" t="n">
-        <v>12035257.32</v>
+        <v>12025248.54</v>
       </c>
       <c r="D8" t="n">
-        <v>159746010.903</v>
+        <v>157798565.203</v>
       </c>
     </row>
     <row r="9">
@@ -4001,13 +4673,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23295383.436</v>
+        <v>22952116.706</v>
       </c>
       <c r="C9" t="n">
-        <v>7374299.767</v>
+        <v>7393354.417</v>
       </c>
       <c r="D9" t="n">
-        <v>30669683.203</v>
+        <v>30345471.123</v>
       </c>
     </row>
     <row r="10">
@@ -4049,10 +4721,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12298021.519</v>
+        <v>12302849.048</v>
       </c>
       <c r="C12" t="n">
-        <v>6370259.821</v>
+        <v>6365432.292</v>
       </c>
       <c r="D12" t="n">
         <v>18668281.34</v>
@@ -4065,13 +4737,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>233197.38</v>
+        <v>233197.18</v>
       </c>
       <c r="C13" t="n">
-        <v>7545291.14</v>
+        <v>7540323.54</v>
       </c>
       <c r="D13" t="n">
-        <v>7778488.52</v>
+        <v>7773520.72</v>
       </c>
     </row>
   </sheetData>
@@ -4122,13 +4794,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283535021.494</v>
+        <v>279818620.954</v>
       </c>
       <c r="C2" t="n">
-        <v>92899967.112</v>
+        <v>92154869.45200001</v>
       </c>
       <c r="D2" t="n">
-        <v>376434988.606</v>
+        <v>371973490.406</v>
       </c>
     </row>
     <row r="5">
@@ -4180,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1671531.13</v>
+        <v>2130390.53</v>
       </c>
       <c r="E7" t="n">
-        <v>2555897.608</v>
+        <v>2097038.208</v>
       </c>
     </row>
     <row r="8">
@@ -4222,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>814465.745</v>
+        <v>1866753.425</v>
       </c>
       <c r="E9" t="n">
-        <v>40640060.474</v>
+        <v>39587772.794</v>
       </c>
     </row>
     <row r="10">
@@ -4264,10 +4936,10 @@
         <v>7944.85</v>
       </c>
       <c r="D11" t="n">
-        <v>3241301.818</v>
+        <v>3915027.358</v>
       </c>
       <c r="E11" t="n">
-        <v>14961602.228</v>
+        <v>15027218.389</v>
       </c>
     </row>
     <row r="12">
@@ -4288,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12974598.079</v>
+        <v>12235256.378</v>
       </c>
     </row>
     <row r="13">
@@ -4309,7 +4981,7 @@
         <v>186666.419</v>
       </c>
       <c r="E13" t="n">
-        <v>16249560.362</v>
+        <v>16254567.062</v>
       </c>
     </row>
     <row r="14">
@@ -4330,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1552701.933</v>
+        <v>1547695.233</v>
       </c>
     </row>
     <row r="15">
@@ -4432,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9118134.300000001</v>
+        <v>11065580</v>
       </c>
       <c r="E19" t="n">
-        <v>147710753.583</v>
+        <v>145773316.663</v>
       </c>
     </row>
     <row r="20">
@@ -4456,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12035257.32</v>
+        <v>12025248.54</v>
       </c>
     </row>
     <row r="21">
@@ -4474,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2640249.5</v>
+        <v>2964461.58</v>
       </c>
       <c r="E21" t="n">
-        <v>23295383.436</v>
+        <v>22952116.706</v>
       </c>
     </row>
     <row r="22">
@@ -4498,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7374299.767</v>
+        <v>7393354.417</v>
       </c>
     </row>
     <row r="23">
@@ -4603,7 +5275,7 @@
         <v>849925.823</v>
       </c>
       <c r="E27" t="n">
-        <v>12298021.519</v>
+        <v>12302849.048</v>
       </c>
     </row>
     <row r="28">
@@ -4624,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6370259.821</v>
+        <v>6365432.292</v>
       </c>
     </row>
     <row r="29">
@@ -4642,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>4982.02</v>
+        <v>9949.82</v>
       </c>
       <c r="E29" t="n">
-        <v>233197.38</v>
+        <v>233197.18</v>
       </c>
     </row>
     <row r="30">
@@ -4666,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7545291.14</v>
+        <v>7540323.54</v>
       </c>
     </row>
   </sheetData>

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4511,6 +4511,678 @@
       </c>
       <c r="H145" t="n">
         <v>233197.18</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>23953631.592</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-586856.4</v>
+      </c>
+      <c r="H146" t="n">
+        <v>23366775.192</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2097038.208</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>586856.4</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2683894.608</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>16122359.646</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-344717.66</v>
+      </c>
+      <c r="H148" t="n">
+        <v>15777641.986</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>39587772.794</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>344717.66</v>
+      </c>
+      <c r="H149" t="n">
+        <v>39932490.454</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>12235256.378</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-60404.809</v>
+      </c>
+      <c r="H150" t="n">
+        <v>12174851.569</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>15027218.389</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>912481.262</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-912481.262</v>
+      </c>
+      <c r="G151" t="n">
+        <v>60404.809</v>
+      </c>
+      <c r="H151" t="n">
+        <v>14175141.936</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1547695.233</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-14918.81</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1532776.423</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>16254567.062</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>14918.81</v>
+      </c>
+      <c r="H153" t="n">
+        <v>16269485.872</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>3472271.68</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-60114.11</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3412157.57</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>21150312.483</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>305487.68</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-305487.68</v>
+      </c>
+      <c r="G155" t="n">
+        <v>60114.11</v>
+      </c>
+      <c r="H155" t="n">
+        <v>20904938.913</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>3642206.244</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3642206.244</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>12025248.54</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-24904.77</v>
+      </c>
+      <c r="H158" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>145773316.663</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1943813</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-1943813</v>
+      </c>
+      <c r="G159" t="n">
+        <v>24904.77</v>
+      </c>
+      <c r="H159" t="n">
+        <v>143854408.433</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>7393354.417</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-540734.24</v>
+      </c>
+      <c r="H160" t="n">
+        <v>6852620.177</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>22952116.706</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>540734.24</v>
+      </c>
+      <c r="H161" t="n">
+        <v>23492850.946</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1225506.264</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-275872.2</v>
+      </c>
+      <c r="H164" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>798026.177</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>275872.2</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1073898.377</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>6365432.292</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-145802.259</v>
+      </c>
+      <c r="H166" t="n">
+        <v>6219630.033</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>12302849.048</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>145802.259</v>
+      </c>
+      <c r="H167" t="n">
+        <v>12448651.307</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>7540323.54</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1308822.14</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6231501.4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>233197.18</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1308822.14</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1542019.32</v>
       </c>
     </row>
   </sheetData>
@@ -4561,10 +5233,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2097038.208</v>
+        <v>2683894.608</v>
       </c>
       <c r="C2" t="n">
-        <v>23953631.592</v>
+        <v>23366775.192</v>
       </c>
       <c r="D2" t="n">
         <v>26050669.8</v>
@@ -4577,13 +5249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39587772.794</v>
+        <v>39932490.454</v>
       </c>
       <c r="C3" t="n">
-        <v>16122359.646</v>
+        <v>15777641.986</v>
       </c>
       <c r="D3" t="n">
-        <v>55710132.44</v>
+        <v>55710132.44000001</v>
       </c>
     </row>
     <row r="4">
@@ -4593,13 +5265,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15027218.389</v>
+        <v>14175141.936</v>
       </c>
       <c r="C4" t="n">
-        <v>12235256.378</v>
+        <v>12174851.569</v>
       </c>
       <c r="D4" t="n">
-        <v>27262474.767</v>
+        <v>26349993.505</v>
       </c>
     </row>
     <row r="5">
@@ -4609,10 +5281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16254567.062</v>
+        <v>16269485.872</v>
       </c>
       <c r="C5" t="n">
-        <v>1547695.233</v>
+        <v>1532776.423</v>
       </c>
       <c r="D5" t="n">
         <v>17802262.295</v>
@@ -4625,13 +5297,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21150312.483</v>
+        <v>20904938.913</v>
       </c>
       <c r="C6" t="n">
-        <v>3472271.68</v>
+        <v>3412157.57</v>
       </c>
       <c r="D6" t="n">
-        <v>24622584.163</v>
+        <v>24317096.483</v>
       </c>
     </row>
     <row r="7">
@@ -4657,13 +5329,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145773316.663</v>
+        <v>143854408.433</v>
       </c>
       <c r="C8" t="n">
-        <v>12025248.54</v>
+        <v>12000343.77</v>
       </c>
       <c r="D8" t="n">
-        <v>157798565.203</v>
+        <v>155854752.203</v>
       </c>
     </row>
     <row r="9">
@@ -4673,10 +5345,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22952116.706</v>
+        <v>23492850.946</v>
       </c>
       <c r="C9" t="n">
-        <v>7393354.417</v>
+        <v>6852620.177</v>
       </c>
       <c r="D9" t="n">
         <v>30345471.123</v>
@@ -4705,10 +5377,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>798026.177</v>
+        <v>1073898.377</v>
       </c>
       <c r="C11" t="n">
-        <v>1225506.264</v>
+        <v>949634.064</v>
       </c>
       <c r="D11" t="n">
         <v>2023532.441</v>
@@ -4721,10 +5393,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12302849.048</v>
+        <v>12448651.307</v>
       </c>
       <c r="C12" t="n">
-        <v>6365432.292</v>
+        <v>6219630.033</v>
       </c>
       <c r="D12" t="n">
         <v>18668281.34</v>
@@ -4737,13 +5409,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>233197.18</v>
+        <v>1542019.32</v>
       </c>
       <c r="C13" t="n">
-        <v>7540323.54</v>
+        <v>6231501.4</v>
       </c>
       <c r="D13" t="n">
-        <v>7773520.72</v>
+        <v>7773520.720000001</v>
       </c>
     </row>
   </sheetData>
@@ -4794,13 +5466,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279818620.954</v>
+        <v>280019986.41</v>
       </c>
       <c r="C2" t="n">
-        <v>92154869.45200001</v>
+        <v>88791722.05400001</v>
       </c>
       <c r="D2" t="n">
-        <v>371973490.406</v>
+        <v>368811708.464</v>
       </c>
     </row>
     <row r="5">
@@ -4855,7 +5527,7 @@
         <v>2130390.53</v>
       </c>
       <c r="E7" t="n">
-        <v>2097038.208</v>
+        <v>2683894.608</v>
       </c>
     </row>
     <row r="8">
@@ -4876,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23953631.592</v>
+        <v>23366775.192</v>
       </c>
     </row>
     <row r="9">
@@ -4897,7 +5569,7 @@
         <v>1866753.425</v>
       </c>
       <c r="E9" t="n">
-        <v>39587772.794</v>
+        <v>39932490.454</v>
       </c>
     </row>
     <row r="10">
@@ -4918,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>16122359.646</v>
+        <v>15777641.986</v>
       </c>
     </row>
     <row r="11">
@@ -4936,10 +5608,10 @@
         <v>7944.85</v>
       </c>
       <c r="D11" t="n">
-        <v>3915027.358</v>
+        <v>4827508.62</v>
       </c>
       <c r="E11" t="n">
-        <v>15027218.389</v>
+        <v>14175141.936</v>
       </c>
     </row>
     <row r="12">
@@ -4960,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12235256.378</v>
+        <v>12174851.569</v>
       </c>
     </row>
     <row r="13">
@@ -4981,7 +5653,7 @@
         <v>186666.419</v>
       </c>
       <c r="E13" t="n">
-        <v>16254567.062</v>
+        <v>16269485.872</v>
       </c>
     </row>
     <row r="14">
@@ -5002,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1547695.233</v>
+        <v>1532776.423</v>
       </c>
     </row>
     <row r="15">
@@ -5020,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>110629.57</v>
+        <v>416117.25</v>
       </c>
       <c r="E15" t="n">
-        <v>21150312.483</v>
+        <v>20904938.913</v>
       </c>
     </row>
     <row r="16">
@@ -5044,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3472271.68</v>
+        <v>3412157.57</v>
       </c>
     </row>
     <row r="17">
@@ -5104,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>11065580</v>
+        <v>13009393</v>
       </c>
       <c r="E19" t="n">
-        <v>145773316.663</v>
+        <v>143854408.433</v>
       </c>
     </row>
     <row r="20">
@@ -5128,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12025248.54</v>
+        <v>12000343.77</v>
       </c>
     </row>
     <row r="21">
@@ -5149,7 +5821,7 @@
         <v>2964461.58</v>
       </c>
       <c r="E21" t="n">
-        <v>22952116.706</v>
+        <v>23492850.946</v>
       </c>
     </row>
     <row r="22">
@@ -5170,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7393354.417</v>
+        <v>6852620.177</v>
       </c>
     </row>
     <row r="23">
@@ -5233,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>798026.177</v>
+        <v>1073898.377</v>
       </c>
     </row>
     <row r="26">
@@ -5254,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1225506.264</v>
+        <v>949634.064</v>
       </c>
     </row>
     <row r="27">
@@ -5275,7 +5947,7 @@
         <v>849925.823</v>
       </c>
       <c r="E27" t="n">
-        <v>12302849.048</v>
+        <v>12448651.307</v>
       </c>
     </row>
     <row r="28">
@@ -5296,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6365432.292</v>
+        <v>6219630.033</v>
       </c>
     </row>
     <row r="29">
@@ -5317,7 +5989,7 @@
         <v>9949.82</v>
       </c>
       <c r="E29" t="n">
-        <v>233197.18</v>
+        <v>1542019.32</v>
       </c>
     </row>
     <row r="30">
@@ -5338,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7540323.54</v>
+        <v>6231501.4</v>
       </c>
     </row>
   </sheetData>

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5183,6 +5183,678 @@
       </c>
       <c r="H169" t="n">
         <v>1542019.32</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>23366775.192</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-64999.2</v>
+      </c>
+      <c r="H170" t="n">
+        <v>23301775.992</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2683894.608</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>64999.2</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2748893.808</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>15777641.986</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5070.65</v>
+      </c>
+      <c r="H172" t="n">
+        <v>15782712.636</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>39932490.454</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>590477.287</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-590477.287</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-5070.65</v>
+      </c>
+      <c r="H173" t="n">
+        <v>39336942.517</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>12174851.569</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>12174851.569</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>14175141.936</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>156242.508</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-156242.508</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>14018899.428</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1532776.423</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1532776.423</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>16269485.872</v>
+      </c>
+      <c r="D177" t="n">
+        <v>7183.278</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>7183.278</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>16276669.15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>3412157.57</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3412157.57</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>20904938.913</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>640576.0600000001</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-640576.0600000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>20264362.853</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>3642206.244</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3642206.244</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>12000343.77</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>143854408.433</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>143854408.433</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>6852620.177</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-540734.24</v>
+      </c>
+      <c r="H184" t="n">
+        <v>6311885.937</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>23492850.946</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>540734.24</v>
+      </c>
+      <c r="H185" t="n">
+        <v>24033585.186</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>949634.064</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1073898.377</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1073898.377</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>6219630.033</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>6219630.033</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>12448651.307</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>12448651.307</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>6231501.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>6231501.4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1542019.32</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4967.6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-4967.6</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1537051.72</v>
       </c>
     </row>
   </sheetData>
@@ -5233,10 +5905,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2683894.608</v>
+        <v>2748893.808</v>
       </c>
       <c r="C2" t="n">
-        <v>23366775.192</v>
+        <v>23301775.992</v>
       </c>
       <c r="D2" t="n">
         <v>26050669.8</v>
@@ -5249,13 +5921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39932490.454</v>
+        <v>39336942.517</v>
       </c>
       <c r="C3" t="n">
-        <v>15777641.986</v>
+        <v>15782712.636</v>
       </c>
       <c r="D3" t="n">
-        <v>55710132.44000001</v>
+        <v>55119655.153</v>
       </c>
     </row>
     <row r="4">
@@ -5265,13 +5937,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14175141.936</v>
+        <v>14018899.428</v>
       </c>
       <c r="C4" t="n">
         <v>12174851.569</v>
       </c>
       <c r="D4" t="n">
-        <v>26349993.505</v>
+        <v>26193750.997</v>
       </c>
     </row>
     <row r="5">
@@ -5281,13 +5953,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16269485.872</v>
+        <v>16276669.15</v>
       </c>
       <c r="C5" t="n">
         <v>1532776.423</v>
       </c>
       <c r="D5" t="n">
-        <v>17802262.295</v>
+        <v>17809445.573</v>
       </c>
     </row>
     <row r="6">
@@ -5297,13 +5969,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20904938.913</v>
+        <v>20264362.853</v>
       </c>
       <c r="C6" t="n">
         <v>3412157.57</v>
       </c>
       <c r="D6" t="n">
-        <v>24317096.483</v>
+        <v>23676520.423</v>
       </c>
     </row>
     <row r="7">
@@ -5345,10 +6017,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23492850.946</v>
+        <v>24033585.186</v>
       </c>
       <c r="C9" t="n">
-        <v>6852620.177</v>
+        <v>6311885.937</v>
       </c>
       <c r="D9" t="n">
         <v>30345471.123</v>
@@ -5409,13 +6081,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1542019.32</v>
+        <v>1537051.72</v>
       </c>
       <c r="C13" t="n">
         <v>6231501.4</v>
       </c>
       <c r="D13" t="n">
-        <v>7773520.720000001</v>
+        <v>7768553.12</v>
       </c>
     </row>
   </sheetData>
@@ -5466,13 +6138,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280019986.41</v>
+        <v>279235569.023</v>
       </c>
       <c r="C2" t="n">
-        <v>88791722.05400001</v>
+        <v>88191059.264</v>
       </c>
       <c r="D2" t="n">
-        <v>368811708.464</v>
+        <v>367426628.287</v>
       </c>
     </row>
     <row r="5">
@@ -5527,7 +6199,7 @@
         <v>2130390.53</v>
       </c>
       <c r="E7" t="n">
-        <v>2683894.608</v>
+        <v>2748893.808</v>
       </c>
     </row>
     <row r="8">
@@ -5548,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23366775.192</v>
+        <v>23301775.992</v>
       </c>
     </row>
     <row r="9">
@@ -5566,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1866753.425</v>
+        <v>2457230.712</v>
       </c>
       <c r="E9" t="n">
-        <v>39932490.454</v>
+        <v>39336942.517</v>
       </c>
     </row>
     <row r="10">
@@ -5590,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15777641.986</v>
+        <v>15782712.636</v>
       </c>
     </row>
     <row r="11">
@@ -5608,10 +6280,10 @@
         <v>7944.85</v>
       </c>
       <c r="D11" t="n">
-        <v>4827508.62</v>
+        <v>4983751.128</v>
       </c>
       <c r="E11" t="n">
-        <v>14175141.936</v>
+        <v>14018899.428</v>
       </c>
     </row>
     <row r="12">
@@ -5647,13 +6319,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>241770.911</v>
+        <v>248954.189</v>
       </c>
       <c r="D13" t="n">
         <v>186666.419</v>
       </c>
       <c r="E13" t="n">
-        <v>16269485.872</v>
+        <v>16276669.15</v>
       </c>
     </row>
     <row r="14">
@@ -5692,10 +6364,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>416117.25</v>
+        <v>1056693.31</v>
       </c>
       <c r="E15" t="n">
-        <v>20904938.913</v>
+        <v>20264362.853</v>
       </c>
     </row>
     <row r="16">
@@ -5821,7 +6493,7 @@
         <v>2964461.58</v>
       </c>
       <c r="E21" t="n">
-        <v>23492850.946</v>
+        <v>24033585.186</v>
       </c>
     </row>
     <row r="22">
@@ -5842,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6852620.177</v>
+        <v>6311885.937</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9949.82</v>
+        <v>14917.42</v>
       </c>
       <c r="E29" t="n">
-        <v>1542019.32</v>
+        <v>1537051.72</v>
       </c>
     </row>
     <row r="30">

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5854,6 +5854,678 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
+        <v>1537051.72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>23301775.992</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>23301775.992</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2748893.808</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2748893.808</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>15782712.636</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>15782712.636</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>39336942.517</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>39336942.517</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>12174851.569</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>12174851.569</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>14018899.428</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>14018899.428</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1532776.423</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1532776.423</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>16276669.15</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4000.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-4000.8</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="H201" t="n">
+        <v>16272628.85</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>3412157.57</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3412157.57</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>20264362.853</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>625953.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-625953.5</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>19638409.353</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>3642206.244</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>346959.6</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-346959.6</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>12000343.77</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>143854408.433</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>143854408.433</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>6311885.937</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>6311885.937</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>24033585.186</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>24033585.186</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>949634.064</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1073898.377</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1073898.377</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>6219630.033</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>6219630.033</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>12448651.307</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>192635.4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-192635.4</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>12256015.907</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>6231501.4</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>6231501.4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1537051.72</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
         <v>1537051.72</v>
       </c>
     </row>
@@ -5953,13 +6625,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16276669.15</v>
+        <v>16272628.85</v>
       </c>
       <c r="C5" t="n">
         <v>1532776.423</v>
       </c>
       <c r="D5" t="n">
-        <v>17809445.573</v>
+        <v>17805405.273</v>
       </c>
     </row>
     <row r="6">
@@ -5969,13 +6641,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20264362.853</v>
+        <v>19638409.353</v>
       </c>
       <c r="C6" t="n">
         <v>3412157.57</v>
       </c>
       <c r="D6" t="n">
-        <v>23676520.423</v>
+        <v>23050566.923</v>
       </c>
     </row>
     <row r="7">
@@ -5985,13 +6657,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3642206.244</v>
+        <v>3295246.644</v>
       </c>
       <c r="C7" t="n">
         <v>273789.87</v>
       </c>
       <c r="D7" t="n">
-        <v>3915996.114</v>
+        <v>3569036.514</v>
       </c>
     </row>
     <row r="8">
@@ -6065,13 +6737,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12448651.307</v>
+        <v>12256015.907</v>
       </c>
       <c r="C12" t="n">
         <v>6219630.033</v>
       </c>
       <c r="D12" t="n">
-        <v>18668281.34</v>
+        <v>18475645.94</v>
       </c>
     </row>
     <row r="13">
@@ -6138,13 +6810,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279235569.023</v>
+        <v>278065980.223</v>
       </c>
       <c r="C2" t="n">
         <v>88191059.264</v>
       </c>
       <c r="D2" t="n">
-        <v>367426628.287</v>
+        <v>366257039.487</v>
       </c>
     </row>
     <row r="5">
@@ -6322,10 +6994,10 @@
         <v>248954.189</v>
       </c>
       <c r="D13" t="n">
-        <v>186666.419</v>
+        <v>190667.219</v>
       </c>
       <c r="E13" t="n">
-        <v>16276669.15</v>
+        <v>16272628.85</v>
       </c>
     </row>
     <row r="14">
@@ -6364,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1056693.31</v>
+        <v>1682646.81</v>
       </c>
       <c r="E15" t="n">
-        <v>20264362.853</v>
+        <v>19638409.353</v>
       </c>
     </row>
     <row r="16">
@@ -6406,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>346959.6</v>
       </c>
       <c r="E17" t="n">
-        <v>3642206.244</v>
+        <v>3295246.644</v>
       </c>
     </row>
     <row r="18">
@@ -6616,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>849925.823</v>
+        <v>1042561.223</v>
       </c>
       <c r="E27" t="n">
-        <v>12448651.307</v>
+        <v>12256015.907</v>
       </c>
     </row>
     <row r="28">

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6526,6 +6526,678 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
+        <v>1537051.72</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>23301775.992</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>23301775.992</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2748893.808</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2748893.808</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>15782712.636</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>15782712.636</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>39336942.517</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>39336942.517</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>12174851.569</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>12174851.569</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>14018899.428</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>162211.605</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-162211.605</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>13856687.823</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1532776.423</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1532776.423</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>16272628.85</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>500751.905</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-500751.905</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>15771876.945</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>3412157.57</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3412157.57</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>19638409.353</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>627200</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-627200</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>19011209.353</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>12000343.77</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>143854408.433</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>963743.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-963743.1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>142890665.333</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>6311885.937</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>6311885.937</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>24033585.186</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>24033585.186</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>949634.064</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1073898.377</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1073898.377</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>6219630.033</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>6219630.033</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>12256015.907</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>12256015.907</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>6231501.4</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6231501.4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1537051.72</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
         <v>1537051.72</v>
       </c>
     </row>
@@ -6609,13 +7281,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14018899.428</v>
+        <v>13856687.823</v>
       </c>
       <c r="C4" t="n">
         <v>12174851.569</v>
       </c>
       <c r="D4" t="n">
-        <v>26193750.997</v>
+        <v>26031539.392</v>
       </c>
     </row>
     <row r="5">
@@ -6625,13 +7297,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16272628.85</v>
+        <v>15771876.945</v>
       </c>
       <c r="C5" t="n">
         <v>1532776.423</v>
       </c>
       <c r="D5" t="n">
-        <v>17805405.273</v>
+        <v>17304653.368</v>
       </c>
     </row>
     <row r="6">
@@ -6641,13 +7313,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19638409.353</v>
+        <v>19011209.353</v>
       </c>
       <c r="C6" t="n">
         <v>3412157.57</v>
       </c>
       <c r="D6" t="n">
-        <v>23050566.923</v>
+        <v>22423366.923</v>
       </c>
     </row>
     <row r="7">
@@ -6673,13 +7345,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143854408.433</v>
+        <v>142890665.333</v>
       </c>
       <c r="C8" t="n">
         <v>12000343.77</v>
       </c>
       <c r="D8" t="n">
-        <v>155854752.203</v>
+        <v>154891009.103</v>
       </c>
     </row>
     <row r="9">
@@ -6810,13 +7482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278065980.223</v>
+        <v>275812073.613</v>
       </c>
       <c r="C2" t="n">
         <v>88191059.264</v>
       </c>
       <c r="D2" t="n">
-        <v>366257039.487</v>
+        <v>364003132.877</v>
       </c>
     </row>
     <row r="5">
@@ -6952,10 +7624,10 @@
         <v>7944.85</v>
       </c>
       <c r="D11" t="n">
-        <v>4983751.128</v>
+        <v>5145962.733</v>
       </c>
       <c r="E11" t="n">
-        <v>14018899.428</v>
+        <v>13856687.823</v>
       </c>
     </row>
     <row r="12">
@@ -6994,10 +7666,10 @@
         <v>248954.189</v>
       </c>
       <c r="D13" t="n">
-        <v>190667.219</v>
+        <v>691419.1240000001</v>
       </c>
       <c r="E13" t="n">
-        <v>16272628.85</v>
+        <v>15771876.945</v>
       </c>
     </row>
     <row r="14">
@@ -7036,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1682646.81</v>
+        <v>2309846.81</v>
       </c>
       <c r="E15" t="n">
-        <v>19638409.353</v>
+        <v>19011209.353</v>
       </c>
     </row>
     <row r="16">
@@ -7120,10 +7792,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13009393</v>
+        <v>13973136.1</v>
       </c>
       <c r="E19" t="n">
-        <v>143854408.433</v>
+        <v>142890665.333</v>
       </c>
     </row>
     <row r="20">

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7199,6 +7199,678 @@
       </c>
       <c r="H241" t="n">
         <v>1537051.72</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>23301775.992</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-10160</v>
+      </c>
+      <c r="H242" t="n">
+        <v>23291615.992</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>2748893.808</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10160</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2759053.808</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>15782712.636</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-20279.63</v>
+      </c>
+      <c r="H244" t="n">
+        <v>15762433.006</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>39336942.517</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="n">
+        <v>20279.63</v>
+      </c>
+      <c r="H245" t="n">
+        <v>39357222.147</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>12174851.569</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>12174851.569</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>13856687.823</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>13856687.823</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1532776.423</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1532776.423</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>15771876.945</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2968.9</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-2968.9</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>15768908.045</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3412157.57</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-19930.44</v>
+      </c>
+      <c r="H250" t="n">
+        <v>3392227.13</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>19011209.353</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="n">
+        <v>19930.44</v>
+      </c>
+      <c r="H251" t="n">
+        <v>19031139.793</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>12000343.77</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>142890665.333</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>142890665.333</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>6311885.937</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-5046.5</v>
+      </c>
+      <c r="H256" t="n">
+        <v>6306839.437</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>24033585.186</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>5046.5</v>
+      </c>
+      <c r="H257" t="n">
+        <v>24038631.686</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>949634.064</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1073898.377</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1073898.377</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>6219630.033</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>6219630.033</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>12256015.907</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>12256015.907</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>6231501.4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-963345.72</v>
+      </c>
+      <c r="H264" t="n">
+        <v>5268155.68</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1537051.72</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>963345.72</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2500397.44</v>
       </c>
     </row>
   </sheetData>
@@ -7249,10 +7921,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2748893.808</v>
+        <v>2759053.808</v>
       </c>
       <c r="C2" t="n">
-        <v>23301775.992</v>
+        <v>23291615.992</v>
       </c>
       <c r="D2" t="n">
         <v>26050669.8</v>
@@ -7265,10 +7937,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39336942.517</v>
+        <v>39357222.147</v>
       </c>
       <c r="C3" t="n">
-        <v>15782712.636</v>
+        <v>15762433.006</v>
       </c>
       <c r="D3" t="n">
         <v>55119655.153</v>
@@ -7297,13 +7969,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15771876.945</v>
+        <v>15768908.045</v>
       </c>
       <c r="C5" t="n">
         <v>1532776.423</v>
       </c>
       <c r="D5" t="n">
-        <v>17304653.368</v>
+        <v>17301684.468</v>
       </c>
     </row>
     <row r="6">
@@ -7313,10 +7985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19011209.353</v>
+        <v>19031139.793</v>
       </c>
       <c r="C6" t="n">
-        <v>3412157.57</v>
+        <v>3392227.13</v>
       </c>
       <c r="D6" t="n">
         <v>22423366.923</v>
@@ -7361,10 +8033,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24033585.186</v>
+        <v>24038631.686</v>
       </c>
       <c r="C9" t="n">
-        <v>6311885.937</v>
+        <v>6306839.437</v>
       </c>
       <c r="D9" t="n">
         <v>30345471.123</v>
@@ -7425,13 +8097,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1537051.72</v>
+        <v>2500397.44</v>
       </c>
       <c r="C13" t="n">
-        <v>6231501.4</v>
+        <v>5268155.68</v>
       </c>
       <c r="D13" t="n">
-        <v>7768553.12</v>
+        <v>7768553.119999999</v>
       </c>
     </row>
   </sheetData>
@@ -7482,13 +8154,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275812073.613</v>
+        <v>276827867.003</v>
       </c>
       <c r="C2" t="n">
-        <v>88191059.264</v>
+        <v>87172296.97399999</v>
       </c>
       <c r="D2" t="n">
-        <v>364003132.877</v>
+        <v>364000163.977</v>
       </c>
     </row>
     <row r="5">
@@ -7543,7 +8215,7 @@
         <v>2130390.53</v>
       </c>
       <c r="E7" t="n">
-        <v>2748893.808</v>
+        <v>2759053.808</v>
       </c>
     </row>
     <row r="8">
@@ -7564,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23301775.992</v>
+        <v>23291615.992</v>
       </c>
     </row>
     <row r="9">
@@ -7585,7 +8257,7 @@
         <v>2457230.712</v>
       </c>
       <c r="E9" t="n">
-        <v>39336942.517</v>
+        <v>39357222.147</v>
       </c>
     </row>
     <row r="10">
@@ -7606,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15782712.636</v>
+        <v>15762433.006</v>
       </c>
     </row>
     <row r="11">
@@ -7666,10 +8338,10 @@
         <v>248954.189</v>
       </c>
       <c r="D13" t="n">
-        <v>691419.1240000001</v>
+        <v>694388.0240000001</v>
       </c>
       <c r="E13" t="n">
-        <v>15771876.945</v>
+        <v>15768908.045</v>
       </c>
     </row>
     <row r="14">
@@ -7711,7 +8383,7 @@
         <v>2309846.81</v>
       </c>
       <c r="E15" t="n">
-        <v>19011209.353</v>
+        <v>19031139.793</v>
       </c>
     </row>
     <row r="16">
@@ -7732,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3412157.57</v>
+        <v>3392227.13</v>
       </c>
     </row>
     <row r="17">
@@ -7837,7 +8509,7 @@
         <v>2964461.58</v>
       </c>
       <c r="E21" t="n">
-        <v>24033585.186</v>
+        <v>24038631.686</v>
       </c>
     </row>
     <row r="22">
@@ -7858,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6311885.937</v>
+        <v>6306839.437</v>
       </c>
     </row>
     <row r="23">
@@ -8005,7 +8677,7 @@
         <v>14917.42</v>
       </c>
       <c r="E29" t="n">
-        <v>1537051.72</v>
+        <v>2500397.44</v>
       </c>
     </row>
     <row r="30">
@@ -8026,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6231501.4</v>
+        <v>5268155.68</v>
       </c>
     </row>
   </sheetData>

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7871,6 +7871,678 @@
       </c>
       <c r="H265" t="n">
         <v>2500397.44</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>23291615.992</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="n">
+        <v>23291615.992</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2759053.808</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1055624.56</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-1055624.56</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1703429.248</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>15762433.006</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1067542.733</v>
+      </c>
+      <c r="H268" t="n">
+        <v>14694890.273</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>39357222.147</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1067542.733</v>
+      </c>
+      <c r="H269" t="n">
+        <v>40424764.88</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>12174851.569</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-4646.1</v>
+      </c>
+      <c r="H270" t="n">
+        <v>12170205.469</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>13856687.823</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>4646.1</v>
+      </c>
+      <c r="H271" t="n">
+        <v>13861333.923</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1532776.423</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1532776.423</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>15768908.045</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>6976.896</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-6976.896</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="n">
+        <v>15761931.149</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>3392227.13</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-5008.1</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3387219.03</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>19031139.793</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>647944.58</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-647944.58</v>
+      </c>
+      <c r="G275" t="n">
+        <v>5008.1</v>
+      </c>
+      <c r="H275" t="n">
+        <v>18388203.313</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>12000343.77</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>142890665.333</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>374396.88</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-374396.88</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="n">
+        <v>142516268.453</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>6306839.437</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>535790.01</v>
+      </c>
+      <c r="H280" t="n">
+        <v>6842629.447</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>24038631.686</v>
+      </c>
+      <c r="D281" t="n">
+        <v>10089.96</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>10089.96</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-535790.01</v>
+      </c>
+      <c r="H281" t="n">
+        <v>23512931.636</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>949634.064</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1073898.377</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1073898.377</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>6219630.033</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-348035.7</v>
+      </c>
+      <c r="H286" t="n">
+        <v>5871594.333</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>12256015.907</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" t="n">
+        <v>348035.7</v>
+      </c>
+      <c r="H287" t="n">
+        <v>12604051.607</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>5268155.68</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="n">
+        <v>5268155.68</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>2500397.44</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>80909.75</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-80909.75</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2419487.69</v>
       </c>
     </row>
   </sheetData>
@@ -7921,13 +8593,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2759053.808</v>
+        <v>1703429.248</v>
       </c>
       <c r="C2" t="n">
         <v>23291615.992</v>
       </c>
       <c r="D2" t="n">
-        <v>26050669.8</v>
+        <v>24995045.24</v>
       </c>
     </row>
     <row r="3">
@@ -7937,10 +8609,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39357222.147</v>
+        <v>40424764.88</v>
       </c>
       <c r="C3" t="n">
-        <v>15762433.006</v>
+        <v>14694890.273</v>
       </c>
       <c r="D3" t="n">
         <v>55119655.153</v>
@@ -7953,10 +8625,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13856687.823</v>
+        <v>13861333.923</v>
       </c>
       <c r="C4" t="n">
-        <v>12174851.569</v>
+        <v>12170205.469</v>
       </c>
       <c r="D4" t="n">
         <v>26031539.392</v>
@@ -7969,13 +8641,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15768908.045</v>
+        <v>15761931.149</v>
       </c>
       <c r="C5" t="n">
         <v>1532776.423</v>
       </c>
       <c r="D5" t="n">
-        <v>17301684.468</v>
+        <v>17294707.572</v>
       </c>
     </row>
     <row r="6">
@@ -7985,13 +8657,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19031139.793</v>
+        <v>18388203.313</v>
       </c>
       <c r="C6" t="n">
-        <v>3392227.13</v>
+        <v>3387219.03</v>
       </c>
       <c r="D6" t="n">
-        <v>22423366.923</v>
+        <v>21775422.343</v>
       </c>
     </row>
     <row r="7">
@@ -8017,13 +8689,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142890665.333</v>
+        <v>142516268.453</v>
       </c>
       <c r="C8" t="n">
         <v>12000343.77</v>
       </c>
       <c r="D8" t="n">
-        <v>154891009.103</v>
+        <v>154516612.223</v>
       </c>
     </row>
     <row r="9">
@@ -8033,13 +8705,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24038631.686</v>
+        <v>23512931.636</v>
       </c>
       <c r="C9" t="n">
-        <v>6306839.437</v>
+        <v>6842629.447</v>
       </c>
       <c r="D9" t="n">
-        <v>30345471.123</v>
+        <v>30355561.083</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8753,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12256015.907</v>
+        <v>12604051.607</v>
       </c>
       <c r="C12" t="n">
-        <v>6219630.033</v>
+        <v>5871594.333</v>
       </c>
       <c r="D12" t="n">
         <v>18475645.94</v>
@@ -8097,13 +8769,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2500397.44</v>
+        <v>2419487.69</v>
       </c>
       <c r="C13" t="n">
         <v>5268155.68</v>
       </c>
       <c r="D13" t="n">
-        <v>7768553.119999999</v>
+        <v>7687643.369999999</v>
       </c>
     </row>
   </sheetData>
@@ -8154,13 +8826,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276827867.003</v>
+        <v>275561546.92</v>
       </c>
       <c r="C2" t="n">
-        <v>87172296.97399999</v>
+        <v>86282854.351</v>
       </c>
       <c r="D2" t="n">
-        <v>364000163.977</v>
+        <v>361844401.271</v>
       </c>
     </row>
     <row r="5">
@@ -8212,10 +8884,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2130390.53</v>
+        <v>3186015.09</v>
       </c>
       <c r="E7" t="n">
-        <v>2759053.808</v>
+        <v>1703429.248</v>
       </c>
     </row>
     <row r="8">
@@ -8257,7 +8929,7 @@
         <v>2457230.712</v>
       </c>
       <c r="E9" t="n">
-        <v>39357222.147</v>
+        <v>40424764.88</v>
       </c>
     </row>
     <row r="10">
@@ -8278,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15762433.006</v>
+        <v>14694890.273</v>
       </c>
     </row>
     <row r="11">
@@ -8299,7 +8971,7 @@
         <v>5145962.733</v>
       </c>
       <c r="E11" t="n">
-        <v>13856687.823</v>
+        <v>13861333.923</v>
       </c>
     </row>
     <row r="12">
@@ -8320,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12174851.569</v>
+        <v>12170205.469</v>
       </c>
     </row>
     <row r="13">
@@ -8338,10 +9010,10 @@
         <v>248954.189</v>
       </c>
       <c r="D13" t="n">
-        <v>694388.0240000001</v>
+        <v>701364.92</v>
       </c>
       <c r="E13" t="n">
-        <v>15768908.045</v>
+        <v>15761931.149</v>
       </c>
     </row>
     <row r="14">
@@ -8380,10 +9052,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2309846.81</v>
+        <v>2957791.39</v>
       </c>
       <c r="E15" t="n">
-        <v>19031139.793</v>
+        <v>18388203.313</v>
       </c>
     </row>
     <row r="16">
@@ -8404,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3392227.13</v>
+        <v>3387219.03</v>
       </c>
     </row>
     <row r="17">
@@ -8464,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13973136.1</v>
+        <v>14347532.98</v>
       </c>
       <c r="E19" t="n">
-        <v>142890665.333</v>
+        <v>142516268.453</v>
       </c>
     </row>
     <row r="20">
@@ -8503,13 +9175,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>10089.96</v>
       </c>
       <c r="D21" t="n">
         <v>2964461.58</v>
       </c>
       <c r="E21" t="n">
-        <v>24038631.686</v>
+        <v>23512931.636</v>
       </c>
     </row>
     <row r="22">
@@ -8530,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6306839.437</v>
+        <v>6842629.447</v>
       </c>
     </row>
     <row r="23">
@@ -8635,7 +9307,7 @@
         <v>1042561.223</v>
       </c>
       <c r="E27" t="n">
-        <v>12256015.907</v>
+        <v>12604051.607</v>
       </c>
     </row>
     <row r="28">
@@ -8656,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6219630.033</v>
+        <v>5871594.333</v>
       </c>
     </row>
     <row r="29">
@@ -8674,10 +9346,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>14917.42</v>
+        <v>95827.17</v>
       </c>
       <c r="E29" t="n">
-        <v>2500397.44</v>
+        <v>2419487.69</v>
       </c>
     </row>
     <row r="30">

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8542,6 +8542,678 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
+        <v>2419487.69</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>23291615.992</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="n">
+        <v>23291615.992</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1703429.248</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1703429.248</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>14694890.273</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-217756.88</v>
+      </c>
+      <c r="H292" t="n">
+        <v>14477133.393</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>40424764.88</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>217756.88</v>
+      </c>
+      <c r="H293" t="n">
+        <v>40642521.76</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>12170205.469</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="n">
+        <v>12170205.469</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>13861333.923</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>13861333.923</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1532776.423</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1532776.423</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>15761931.149</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>3158.747</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-3158.747</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" t="n">
+        <v>15758772.402</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>3387219.03</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="n">
+        <v>3387219.03</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>18388203.313</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>623546.3</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-623546.3</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>17764657.013</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>12000343.77</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>142516268.453</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>24904.77</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-24904.77</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>142491363.683</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>6842629.447</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" t="n">
+        <v>6842629.447</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>23512931.636</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
+      <c r="H305" t="n">
+        <v>23512931.636</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>949634.064</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+      <c r="H308" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1073898.377</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1073898.377</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>5871594.333</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="n">
+        <v>5871594.333</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>12604051.607</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>619157.709</v>
+      </c>
+      <c r="F311" t="n">
+        <v>-619157.709</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
+      <c r="H311" t="n">
+        <v>11984893.898</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>5268155.68</v>
+      </c>
+      <c r="D312" t="n">
+        <v>65301.69</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>65301.69</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" t="n">
+        <v>5333457.37</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>2419487.69</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" t="n">
         <v>2419487.69</v>
       </c>
     </row>
@@ -8609,10 +9281,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40424764.88</v>
+        <v>40642521.76</v>
       </c>
       <c r="C3" t="n">
-        <v>14694890.273</v>
+        <v>14477133.393</v>
       </c>
       <c r="D3" t="n">
         <v>55119655.153</v>
@@ -8641,13 +9313,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15761931.149</v>
+        <v>15758772.402</v>
       </c>
       <c r="C5" t="n">
         <v>1532776.423</v>
       </c>
       <c r="D5" t="n">
-        <v>17294707.572</v>
+        <v>17291548.825</v>
       </c>
     </row>
     <row r="6">
@@ -8657,13 +9329,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18388203.313</v>
+        <v>17764657.013</v>
       </c>
       <c r="C6" t="n">
         <v>3387219.03</v>
       </c>
       <c r="D6" t="n">
-        <v>21775422.343</v>
+        <v>21151876.043</v>
       </c>
     </row>
     <row r="7">
@@ -8689,13 +9361,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142516268.453</v>
+        <v>142491363.683</v>
       </c>
       <c r="C8" t="n">
         <v>12000343.77</v>
       </c>
       <c r="D8" t="n">
-        <v>154516612.223</v>
+        <v>154491707.453</v>
       </c>
     </row>
     <row r="9">
@@ -8753,13 +9425,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12604051.607</v>
+        <v>11984893.898</v>
       </c>
       <c r="C12" t="n">
         <v>5871594.333</v>
       </c>
       <c r="D12" t="n">
-        <v>18475645.94</v>
+        <v>17856488.231</v>
       </c>
     </row>
     <row r="13">
@@ -8772,10 +9444,10 @@
         <v>2419487.69</v>
       </c>
       <c r="C13" t="n">
-        <v>5268155.68</v>
+        <v>5333457.37</v>
       </c>
       <c r="D13" t="n">
-        <v>7687643.369999999</v>
+        <v>7752945.060000001</v>
       </c>
     </row>
   </sheetData>
@@ -8826,13 +9498,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275561546.92</v>
+        <v>274508536.274</v>
       </c>
       <c r="C2" t="n">
-        <v>86282854.351</v>
+        <v>86130399.161</v>
       </c>
       <c r="D2" t="n">
-        <v>361844401.271</v>
+        <v>360638935.435</v>
       </c>
     </row>
     <row r="5">
@@ -8929,7 +9601,7 @@
         <v>2457230.712</v>
       </c>
       <c r="E9" t="n">
-        <v>40424764.88</v>
+        <v>40642521.76</v>
       </c>
     </row>
     <row r="10">
@@ -8950,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14694890.273</v>
+        <v>14477133.393</v>
       </c>
     </row>
     <row r="11">
@@ -9010,10 +9682,10 @@
         <v>248954.189</v>
       </c>
       <c r="D13" t="n">
-        <v>701364.92</v>
+        <v>704523.667</v>
       </c>
       <c r="E13" t="n">
-        <v>15761931.149</v>
+        <v>15758772.402</v>
       </c>
     </row>
     <row r="14">
@@ -9052,10 +9724,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2957791.39</v>
+        <v>3581337.69</v>
       </c>
       <c r="E15" t="n">
-        <v>18388203.313</v>
+        <v>17764657.013</v>
       </c>
     </row>
     <row r="16">
@@ -9136,10 +9808,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14347532.98</v>
+        <v>14372437.75</v>
       </c>
       <c r="E19" t="n">
-        <v>142516268.453</v>
+        <v>142491363.683</v>
       </c>
     </row>
     <row r="20">
@@ -9304,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1042561.223</v>
+        <v>1661718.932</v>
       </c>
       <c r="E27" t="n">
-        <v>12604051.607</v>
+        <v>11984893.898</v>
       </c>
     </row>
     <row r="28">
@@ -9364,13 +10036,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19763.18</v>
+        <v>85064.87</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>5268155.68</v>
+        <v>5333457.37</v>
       </c>
     </row>
   </sheetData>

--- a/silver_daily_report.xlsx
+++ b/silver_daily_report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9214,6 +9214,678 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
+        <v>2419487.69</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Registered</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>23291615.992</v>
+      </c>
+      <c r="D314" t="n">
+        <v>824168.84</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>824168.84</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" t="n">
+        <v>24115784.832</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>ASAHI DEPOSITORY LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1703429.248</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1703429.248</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>14477133.393</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G316" t="n">
+        <v>111428.054</v>
+      </c>
+      <c r="H316" t="n">
+        <v>14588561.447</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>BRINK'S, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>40642521.76</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-111428.054</v>
+      </c>
+      <c r="H317" t="n">
+        <v>40531093.706</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>12170205.469</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="n">
+        <v>12170205.469</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>CNT DEPOSITORY, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>13861333.923</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>485175.71</v>
+      </c>
+      <c r="F319" t="n">
+        <v>-485175.71</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" t="n">
+        <v>13376158.213</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Registered</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1532776.423</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G320" t="n">
+        <v>85768.11599999999</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1618544.539</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>DELAWARE DEPOSITORY Eligible</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>15758772.402</v>
+      </c>
+      <c r="D321" t="n">
+        <v>26231.01</v>
+      </c>
+      <c r="E321" t="n">
+        <v>9999.809999999999</v>
+      </c>
+      <c r="F321" t="n">
+        <v>16231.2</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-85768.11599999999</v>
+      </c>
+      <c r="H321" t="n">
+        <v>15689235.486</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Registered</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>3387219.03</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0</v>
+      </c>
+      <c r="H322" t="n">
+        <v>3387219.03</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>HSBC BANK, USA Eligible</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>17764657.013</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="n">
+        <v>17764657.013</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Registered</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>273789.87</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
+      <c r="H324" t="n">
+        <v>273789.87</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEPOSITORY SERVICES OF DELAWARE Eligible</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>3295246.644</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" t="n">
+        <v>3295246.644</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Registered</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>12000343.77</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0</v>
+      </c>
+      <c r="H326" t="n">
+        <v>12000343.77</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>JP MORGAN CHASE BANK NA Eligible</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>142491363.683</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>647661.5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>-647661.5</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="n">
+        <v>141843702.183</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Registered</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>6842629.447</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="n">
+        <v>964465.51</v>
+      </c>
+      <c r="H328" t="n">
+        <v>7807094.957</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>LOOMIS INTERNATIONAL (US) LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>23512931.636</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-964465.51</v>
+      </c>
+      <c r="H329" t="n">
+        <v>22548466.126</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Registered</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT ARMORED, INC. Eligible</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>949634.064</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0</v>
+      </c>
+      <c r="H332" t="n">
+        <v>949634.064</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MALCA-AMIT USA, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1073898.377</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>128731</v>
+      </c>
+      <c r="F333" t="n">
+        <v>-128731</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
+      <c r="H333" t="n">
+        <v>945167.377</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Registered</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>5871594.333</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" t="n">
+        <v>5871594.333</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>MANFRA, TORDELLA &amp; BROOKES, LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>11984893.898</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>192764.302</v>
+      </c>
+      <c r="F335" t="n">
+        <v>-192764.302</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0</v>
+      </c>
+      <c r="H335" t="n">
+        <v>11792129.596</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Registered</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>5333457.37</v>
+      </c>
+      <c r="D336" t="n">
+        <v>307500.19</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>307500.19</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0</v>
+      </c>
+      <c r="H336" t="n">
+        <v>5640957.56</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>STONEX PRECIOUS METALS LLC Eligible</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>2419487.69</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" t="n">
         <v>2419487.69</v>
       </c>
     </row>
@@ -9268,10 +9940,10 @@
         <v>1703429.248</v>
       </c>
       <c r="C2" t="n">
-        <v>23291615.992</v>
+        <v>24115784.832</v>
       </c>
       <c r="D2" t="n">
-        <v>24995045.24</v>
+        <v>25819214.08</v>
       </c>
     </row>
     <row r="3">
@@ -9281,10 +9953,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40642521.76</v>
+        <v>40531093.706</v>
       </c>
       <c r="C3" t="n">
-        <v>14477133.393</v>
+        <v>14588561.447</v>
       </c>
       <c r="D3" t="n">
         <v>55119655.153</v>
@@ -9297,13 +9969,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13861333.923</v>
+        <v>13376158.213</v>
       </c>
       <c r="C4" t="n">
         <v>12170205.469</v>
       </c>
       <c r="D4" t="n">
-        <v>26031539.392</v>
+        <v>25546363.682</v>
       </c>
     </row>
     <row r="5">
@@ -9313,13 +9985,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15758772.402</v>
+        <v>15689235.486</v>
       </c>
       <c r="C5" t="n">
-        <v>1532776.423</v>
+        <v>1618544.539</v>
       </c>
       <c r="D5" t="n">
-        <v>17291548.825</v>
+        <v>17307780.025</v>
       </c>
     </row>
     <row r="6">
@@ -9361,13 +10033,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142491363.683</v>
+        <v>141843702.183</v>
       </c>
       <c r="C8" t="n">
         <v>12000343.77</v>
       </c>
       <c r="D8" t="n">
-        <v>154491707.453</v>
+        <v>153844045.953</v>
       </c>
     </row>
     <row r="9">
@@ -9377,10 +10049,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23512931.636</v>
+        <v>22548466.126</v>
       </c>
       <c r="C9" t="n">
-        <v>6842629.447</v>
+        <v>7807094.957</v>
       </c>
       <c r="D9" t="n">
         <v>30355561.083</v>
@@ -9409,13 +10081,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1073898.377</v>
+        <v>945167.377</v>
       </c>
       <c r="C11" t="n">
         <v>949634.064</v>
       </c>
       <c r="D11" t="n">
-        <v>2023532.441</v>
+        <v>1894801.441</v>
       </c>
     </row>
     <row r="12">
@@ -9425,13 +10097,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11984893.898</v>
+        <v>11792129.596</v>
       </c>
       <c r="C12" t="n">
         <v>5871594.333</v>
       </c>
       <c r="D12" t="n">
-        <v>17856488.231</v>
+        <v>17663723.929</v>
       </c>
     </row>
     <row r="13">
@@ -9444,10 +10116,10 @@
         <v>2419487.69</v>
       </c>
       <c r="C13" t="n">
-        <v>5333457.37</v>
+        <v>5640957.56</v>
       </c>
       <c r="D13" t="n">
-        <v>7752945.060000001</v>
+        <v>8060445.25</v>
       </c>
     </row>
   </sheetData>
@@ -9498,13 +10170,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274508536.274</v>
+        <v>271908773.282</v>
       </c>
       <c r="C2" t="n">
-        <v>86130399.161</v>
+        <v>88423729.87099999</v>
       </c>
       <c r="D2" t="n">
-        <v>360638935.435</v>
+        <v>360332503.153</v>
       </c>
     </row>
     <row r="5">
@@ -9574,13 +10246,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>824168.84</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23291615.992</v>
+        <v>24115784.832</v>
       </c>
     </row>
     <row r="9">
@@ -9601,7 +10273,7 @@
         <v>2457230.712</v>
       </c>
       <c r="E9" t="n">
-        <v>40642521.76</v>
+        <v>40531093.706</v>
       </c>
     </row>
     <row r="10">
@@ -9622,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14477133.393</v>
+        <v>14588561.447</v>
       </c>
     </row>
     <row r="11">
@@ -9640,10 +10312,10 @@
         <v>7944.85</v>
       </c>
       <c r="D11" t="n">
-        <v>5145962.733</v>
+        <v>5631138.443</v>
       </c>
       <c r="E11" t="n">
-        <v>13861333.923</v>
+        <v>13376158.213</v>
       </c>
     </row>
     <row r="12">
@@ -9679,13 +10351,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>248954.189</v>
+        <v>275185.199</v>
       </c>
       <c r="D13" t="n">
-        <v>704523.667</v>
+        <v>714523.4770000001</v>
       </c>
       <c r="E13" t="n">
-        <v>15758772.402</v>
+        <v>15689235.486</v>
       </c>
     </row>
     <row r="14">
@@ -9706,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1532776.423</v>
+        <v>1618544.539</v>
       </c>
     </row>
     <row r="15">
@@ -9808,10 +10480,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14372437.75</v>
+        <v>15020099.25</v>
       </c>
       <c r="E19" t="n">
-        <v>142491363.683</v>
+        <v>141843702.183</v>
       </c>
     </row>
     <row r="20">
@@ -9853,7 +10525,7 @@
         <v>2964461.58</v>
       </c>
       <c r="E21" t="n">
-        <v>23512931.636</v>
+        <v>22548466.126</v>
       </c>
     </row>
     <row r="22">
@@ -9874,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6842629.447</v>
+        <v>7807094.957</v>
       </c>
     </row>
     <row r="23">
@@ -9934,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128731</v>
       </c>
       <c r="E25" t="n">
-        <v>1073898.377</v>
+        <v>945167.377</v>
       </c>
     </row>
     <row r="26">
@@ -9976,10 +10648,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1661718.932</v>
+        <v>1854483.234</v>
       </c>
       <c r="E27" t="n">
-        <v>11984893.898</v>
+        <v>11792129.596</v>
       </c>
     </row>
     <row r="28">
@@ -10036,13 +10708,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>85064.87</v>
+        <v>392565.06</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>5333457.37</v>
+        <v>5640957.56</v>
       </c>
     </row>
   </sheetData>
